--- a/A faire pour TPI Pittet.xlsx
+++ b/A faire pour TPI Pittet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/loic_pittet_studentfr_ch/Documents/TPI_PITTETL02/tpi_carte_electronique_didactique_pittetl02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{EC05EF7A-65BF-48BF-A1BC-B56A0AE91E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAF64A75-5C24-4194-8996-00F52BA9DCCB}"/>
+  <xr:revisionPtr revIDLastSave="431" documentId="13_ncr:1_{EC05EF7A-65BF-48BF-A1BC-B56A0AE91E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86042CB1-3537-456F-BC92-1F18946C7801}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20743103-4B2D-4C28-BAB9-2195E89FC384}"/>
+    <workbookView xWindow="3045" yWindow="8670" windowWidth="21600" windowHeight="11385" xr2:uid="{20743103-4B2D-4C28-BAB9-2195E89FC384}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -218,6 +218,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,7 +539,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,9 +607,11 @@
         <v>45789</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45789</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
